--- a/python-excel-custom-metrics-rolling-demo.xlsx
+++ b/python-excel-custom-metrics-rolling-demo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F16BD9-9FA7-40EB-B887-6BB0FDBE7F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE978D87-44F9-4123-A091-FBFEB3944791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{D516E1A2-457A-473F-9D7A-8ADE23876DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="agg_options" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,11 +52,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="12"/>
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
@@ -64,9 +73,12 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -75,7 +87,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -91,14 +103,27 @@
   </environmentDefinition>
   <pythonScripts>
     <pythonScript>
-      <code>sales_df = xl(%P2%, headers=True)</code>
+      <code>sales_df = xl(%P2%, headers=True)
+start_date = xl(%P3%)
+end_date = xl(%P4%)
+cum_type = xl(%P5%)</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">sales_df_filtered = sales_df[sales_df['Date'].between(start_date, end_date)]
+sales_df_filtered['cum_value'] = getattr(sales_df_filtered['Sales'].expanding(), cum_type)()
+# Plotting the data directly using pyplot
+plt.figure(figsize=(12, 5)) 
+plt.plot(sales_df_filtered['Date'], sales_df_filtered['cum_value'])
+# Adding a title
+plt.title('Cumulative Sales Over Time')
+</code>
     </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -106,19 +131,19 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>Choose Start Date</t>
   </si>
   <si>
-    <t>East</t>
+    <t>Choose End Date</t>
   </si>
   <si>
-    <t>West</t>
+    <t>Cum average or sum?</t>
   </si>
   <si>
-    <t>Central</t>
+    <t>sum</t>
   </si>
   <si>
-    <t>South</t>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -173,14 +198,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -199,17 +230,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -264,176 +284,52 @@
 </rvTypesInfo>
 </file>
 
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="12" c="4">
-    <v t="s"/>
-    <v t="s">Date</v>
-    <v t="s">Sales</v>
-    <v t="s">Region</v>
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb t="s">sum</fb>
+    <v>&lt;class 'str'&gt;</v>
+    <v>str</v>
+    <v>sum</v>
+    <v>sum</v>
     <v>0</v>
-    <v t="r">0</v>
-    <v>1200</v>
-    <v t="s">East</v>
     <v>1</v>
-    <v t="r">1</v>
-    <v>1150</v>
-    <v t="s">West</v>
-    <v>2</v>
-    <v t="r">2</v>
-    <v>1300</v>
-    <v t="s">Central</v>
-    <v>3</v>
-    <v t="r">3</v>
-    <v>1250</v>
-    <v t="s">South</v>
-    <v>4</v>
-    <v t="r">4</v>
-    <v>1400</v>
-    <v t="s">East</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v>86</v>
-    <v t="r">5</v>
-    <v>5500</v>
-    <v t="s">Central</v>
-    <v>87</v>
-    <v t="r">6</v>
-    <v>5450</v>
-    <v t="s">South</v>
-    <v>88</v>
-    <v t="r">7</v>
-    <v>5600</v>
-    <v t="s">East</v>
-    <v>89</v>
-    <v t="r">8</v>
-    <v>5550</v>
-    <v t="s">West</v>
-    <v>90</v>
-    <v t="r">9</v>
-    <v>5700</v>
-    <v t="s">Central</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
-  <rv s="0">
-    <fb>45292</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45293</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45294</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45295</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45296</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45378</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45379</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45380</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45381</fb>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <fb>45382</fb>
-    <v>2</v>
   </rv>
   <rv s="1">
     <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>DataFrame</v>
-    <v>1</v>
-    <v>10</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">         Date  Sales   Region
-0  2024-01-01   1200     East
-1  2024-01-02   1150     West
-2  2024-01-03   1300  Central
-3  2024-01-04   1250    South
-4  2024-01-05   1400     East
-..        ...    ...      ...
-86 2024-03-27   5500  Central
-87 2024-03-2...</v>
-    <v>11</v>
-    <v>3</v>
-    <v>4</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <s t="_formattednumber">
-    <k n="_Format" t="spb"/>
-  </s>
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
-  </s>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_python">
     <k n="Python_type" t="s"/>
     <k n="Python_typeName" t="s"/>
     <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
+    <k n="basicValue" t="s"/>
     <k n="_Provider" t="spb"/>
     <k n="provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="5">
+  <spbData count="2">
     <spb s="0">
-      <v>91</v>
-      <v>3</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>0</v>
-    </spb>
-    <spb s="2">
-      <v>1</v>
-    </spb>
-    <spb s="3">
       <v>https://www.anaconda.com/excel</v>
       <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
       <v>Python provided by Anaconda</v>
     </spb>
-    <spb s="4">
+    <spb s="1">
       <v>https://www.anaconda.com/excel</v>
       <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
       <v>Python provided by Anaconda</v>
@@ -443,20 +339,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-    <k n="headers" t="b"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
-  </s>
-  <s>
-    <k n="_Self" t="i"/>
-  </s>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
   <s>
     <k n="link" t="s"/>
     <k n="logo" t="s"/>
@@ -470,26 +353,18 @@
 </spbStructures>
 </file>
 
-<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
-<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="1">
-    <x:dxf>
-      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </x:dxf>
-  </dxfs>
-  <richStyles>
-    <rSty dxfid="0"/>
-  </richStyles>
-</richStyleSheet>
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48C3694A-7A73-4589-A380-1A89CFCC0ACA}" name="sales" displayName="sales" ref="A1:C92" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C92" xr:uid="{48C3694A-7A73-4589-A380-1A89CFCC0ACA}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{71FF771A-B3B7-4D8A-8B60-C69E45A6A88F}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{15ABA522-EF9D-494E-AA3A-14F24BB664E5}" name="Sales" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6C52B3A5-06FB-406F-A3D1-8E1C51D06EC1}" name="Region" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48C3694A-7A73-4589-A380-1A89CFCC0ACA}" name="sales" displayName="sales" ref="A1:B92" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B92" xr:uid="{48C3694A-7A73-4589-A380-1A89CFCC0ACA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{71FF771A-B3B7-4D8A-8B60-C69E45A6A88F}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{15ABA522-EF9D-494E-AA3A-14F24BB664E5}" name="Sales" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,10 +690,13 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="19.15625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -827,8 +705,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>45292</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -838,12 +719,11 @@
       <c r="B2" s="3">
         <v>1200</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="e" cm="1" vm="1">
-        <f t="array" ref="E2">_xlfn._xlws.PY(0,1,sales[#All])</f>
-        <v>#VALUE!</v>
+      <c r="E2" s="4">
+        <v>45323</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -853,8 +733,11 @@
       <c r="B3" s="3">
         <v>1150</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
         <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -864,9 +747,6 @@
       <c r="B4" s="3">
         <v>1300</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
@@ -875,9 +755,6 @@
       <c r="B5" s="3">
         <v>1250</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
@@ -886,9 +763,6 @@
       <c r="B6" s="3">
         <v>1400</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
@@ -897,9 +771,6 @@
       <c r="B7" s="3">
         <v>1350</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
@@ -908,9 +779,6 @@
       <c r="B8" s="3">
         <v>1500</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
@@ -919,9 +787,6 @@
       <c r="B9" s="3">
         <v>1450</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
@@ -930,9 +795,6 @@
       <c r="B10" s="3">
         <v>1600</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
@@ -941,9 +803,6 @@
       <c r="B11" s="3">
         <v>1550</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
@@ -952,9 +811,6 @@
       <c r="B12" s="3">
         <v>1700</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
@@ -963,9 +819,6 @@
       <c r="B13" s="3">
         <v>1650</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
@@ -974,9 +827,6 @@
       <c r="B14" s="3">
         <v>1800</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
@@ -985,9 +835,6 @@
       <c r="B15" s="3">
         <v>1750</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
@@ -996,844 +843,613 @@
       <c r="B16" s="3">
         <v>1900</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>45307</v>
       </c>
       <c r="B17" s="3">
         <v>1850</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>45308</v>
       </c>
       <c r="B18" s="3">
         <v>2000</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>45309</v>
       </c>
       <c r="B19" s="3">
         <v>1950</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>45310</v>
       </c>
       <c r="B20" s="3">
         <v>2100</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>45311</v>
       </c>
       <c r="B21" s="3">
         <v>2050</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>45312</v>
       </c>
       <c r="B22" s="3">
         <v>2200</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>45313</v>
       </c>
       <c r="B23" s="3">
         <v>2150</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>45314</v>
       </c>
       <c r="B24" s="3">
         <v>2300</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>45315</v>
       </c>
       <c r="B25" s="3">
         <v>2250</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>45316</v>
       </c>
       <c r="B26" s="3">
         <v>2400</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>45317</v>
       </c>
       <c r="B27" s="3">
         <v>2350</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>45318</v>
       </c>
       <c r="B28" s="3">
         <v>2500</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>45319</v>
       </c>
       <c r="B29" s="3">
         <v>2450</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>45320</v>
       </c>
       <c r="B30" s="3">
         <v>2600</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>45321</v>
       </c>
       <c r="B31" s="3">
         <v>2550</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>45322</v>
       </c>
       <c r="B32" s="3">
         <v>2700</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>45323</v>
       </c>
       <c r="B33" s="3">
         <v>2650</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>45324</v>
       </c>
       <c r="B34" s="3">
         <v>2800</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>45325</v>
       </c>
       <c r="B35" s="3">
         <v>2750</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>45326</v>
       </c>
       <c r="B36" s="3">
         <v>2900</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>45327</v>
       </c>
       <c r="B37" s="3">
         <v>2850</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>45328</v>
       </c>
       <c r="B38" s="3">
         <v>3000</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>45329</v>
       </c>
       <c r="B39" s="3">
         <v>2950</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>45330</v>
       </c>
       <c r="B40" s="3">
         <v>3100</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>45331</v>
       </c>
       <c r="B41" s="3">
         <v>3050</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>45332</v>
       </c>
       <c r="B42" s="3">
         <v>3200</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>45333</v>
       </c>
       <c r="B43" s="3">
         <v>3150</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>45334</v>
       </c>
       <c r="B44" s="3">
         <v>3300</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>45335</v>
       </c>
       <c r="B45" s="3">
         <v>3250</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>45336</v>
       </c>
       <c r="B46" s="3">
         <v>3400</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <v>45337</v>
       </c>
       <c r="B47" s="3">
         <v>3350</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <v>45338</v>
       </c>
       <c r="B48" s="3">
         <v>3500</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <v>45339</v>
       </c>
       <c r="B49" s="3">
         <v>3450</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>45340</v>
       </c>
       <c r="B50" s="3">
         <v>3600</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <v>45341</v>
       </c>
       <c r="B51" s="3">
         <v>3550</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <v>45342</v>
       </c>
       <c r="B52" s="3">
         <v>3700</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>45343</v>
       </c>
       <c r="B53" s="3">
         <v>3650</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <v>45344</v>
       </c>
       <c r="B54" s="3">
         <v>3800</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
         <v>45345</v>
       </c>
       <c r="B55" s="3">
         <v>3750</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>45346</v>
       </c>
       <c r="B56" s="3">
         <v>3900</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>45347</v>
       </c>
       <c r="B57" s="3">
         <v>3850</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
         <v>45348</v>
       </c>
       <c r="B58" s="3">
         <v>4000</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
         <v>45349</v>
       </c>
       <c r="B59" s="3">
         <v>3950</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
         <v>45350</v>
       </c>
       <c r="B60" s="3">
         <v>4100</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
         <v>45351</v>
       </c>
       <c r="B61" s="3">
         <v>4050</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
         <v>45352</v>
       </c>
       <c r="B62" s="3">
         <v>4200</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
         <v>45353</v>
       </c>
       <c r="B63" s="3">
         <v>4150</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
         <v>45354</v>
       </c>
       <c r="B64" s="3">
         <v>4300</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
         <v>45355</v>
       </c>
       <c r="B65" s="3">
         <v>4250</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
         <v>45356</v>
       </c>
       <c r="B66" s="3">
         <v>4400</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
         <v>45357</v>
       </c>
       <c r="B67" s="3">
         <v>4350</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
         <v>45358</v>
       </c>
       <c r="B68" s="3">
         <v>4500</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
         <v>45359</v>
       </c>
       <c r="B69" s="3">
         <v>4450</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2">
         <v>45360</v>
       </c>
       <c r="B70" s="3">
         <v>4600</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
         <v>45361</v>
       </c>
       <c r="B71" s="3">
         <v>4550</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2">
         <v>45362</v>
       </c>
       <c r="B72" s="3">
         <v>4700</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2">
         <v>45363</v>
       </c>
       <c r="B73" s="3">
         <v>4650</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2">
         <v>45364</v>
       </c>
       <c r="B74" s="3">
         <v>4800</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2">
         <v>45365</v>
       </c>
       <c r="B75" s="3">
         <v>4750</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2">
         <v>45366</v>
       </c>
       <c r="B76" s="3">
         <v>4900</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2">
         <v>45367</v>
       </c>
       <c r="B77" s="3">
         <v>4850</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2">
         <v>45368</v>
       </c>
       <c r="B78" s="3">
         <v>5000</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2">
         <v>45369</v>
       </c>
       <c r="B79" s="3">
         <v>4950</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2">
         <v>45370</v>
       </c>
       <c r="B80" s="3">
         <v>5100</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2">
         <v>45371</v>
       </c>
       <c r="B81" s="3">
         <v>5050</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2">
         <v>45372</v>
       </c>
       <c r="B82" s="3">
         <v>5200</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2">
         <v>45373</v>
       </c>
       <c r="B83" s="3">
         <v>5150</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2">
         <v>45374</v>
       </c>
       <c r="B84" s="3">
         <v>5300</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2">
         <v>45375</v>
       </c>
       <c r="B85" s="3">
         <v>5250</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2">
         <v>45376</v>
       </c>
       <c r="B86" s="3">
         <v>5400</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2">
         <v>45377</v>
       </c>
       <c r="B87" s="3">
         <v>5350</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2">
         <v>45378</v>
       </c>
       <c r="B88" s="3">
         <v>5500</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2">
         <v>45379</v>
       </c>
       <c r="B89" s="3">
         <v>5450</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2">
         <v>45380</v>
       </c>
       <c r="B90" s="3">
         <v>5600</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2">
         <v>45381</v>
       </c>
       <c r="B91" s="3">
         <v>5550</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2">
         <v>45382</v>
       </c>
       <c r="B92" s="3">
         <v>5700</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1841,5 +1457,69 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13F2BE21-89C6-459B-A982-30FAEFD79DCA}">
+          <x14:formula1>
+            <xm:f>agg_options!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F61878-7BDD-4D87-A651-A8F6347BB64A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADEA84-7EE8-42E3-82EF-EE2622C56677}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="str" cm="1" vm="1">
+        <f t="array" ref="A1">_xlfn._xlws.PY(0,1,sales[#All],Sheet1!E1,Sheet1!E2,Sheet1!E3)</f>
+        <v>sum</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="e" cm="1" vm="2">
+        <f t="array" ref="A2">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>